--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H2">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I2">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J2">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.35839113954773</v>
+        <v>1.379781</v>
       </c>
       <c r="N2">
-        <v>1.35839113954773</v>
+        <v>4.139343</v>
       </c>
       <c r="O2">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="P2">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="Q2">
-        <v>8.851537785502956</v>
+        <v>31.36491033507001</v>
       </c>
       <c r="R2">
-        <v>8.851537785502956</v>
+        <v>282.2841930156301</v>
       </c>
       <c r="S2">
-        <v>5.74841282496815E-05</v>
+        <v>0.0001708888778771755</v>
       </c>
       <c r="T2">
-        <v>5.74841282496815E-05</v>
+        <v>0.0001708888778771755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H3">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I3">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J3">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>49.4401043225405</v>
+        <v>1.27306</v>
       </c>
       <c r="N3">
-        <v>49.4401043225405</v>
+        <v>3.81918</v>
       </c>
       <c r="O3">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="P3">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="Q3">
-        <v>322.1612235161363</v>
+        <v>28.93894955153333</v>
       </c>
       <c r="R3">
-        <v>322.1612235161363</v>
+        <v>260.4505459638</v>
       </c>
       <c r="S3">
-        <v>0.002092196580802778</v>
+        <v>0.0001576712499087297</v>
       </c>
       <c r="T3">
-        <v>0.002092196580802778</v>
+        <v>0.0001576712499087297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3015.31565795238</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H4">
-        <v>3015.31565795238</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I4">
-        <v>0.994747495967352</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J4">
-        <v>0.994747495967352</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.35839113954773</v>
+        <v>55.34225733333333</v>
       </c>
       <c r="N4">
-        <v>1.35839113954773</v>
+        <v>166.026772</v>
       </c>
       <c r="O4">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="P4">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="Q4">
-        <v>4095.978072702047</v>
+        <v>1258.029309724058</v>
       </c>
       <c r="R4">
-        <v>4095.978072702047</v>
+        <v>11322.26378751652</v>
       </c>
       <c r="S4">
-        <v>0.02660031901176694</v>
+        <v>0.006854258940283436</v>
       </c>
       <c r="T4">
-        <v>0.02660031901176694</v>
+        <v>0.006854258940283436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3015.31565795238</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H5">
-        <v>3015.31565795238</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I5">
-        <v>0.994747495967352</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J5">
-        <v>0.994747495967352</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>49.4401043225405</v>
+        <v>0.8696043333333333</v>
       </c>
       <c r="N5">
-        <v>49.4401043225405</v>
+        <v>2.608813</v>
       </c>
       <c r="O5">
-        <v>0.9732592249594967</v>
+        <v>0.01477293342085909</v>
       </c>
       <c r="P5">
-        <v>0.9732592249594967</v>
+        <v>0.01477293342085909</v>
       </c>
       <c r="Q5">
-        <v>149077.5206945555</v>
+        <v>19.76767468314778</v>
       </c>
       <c r="R5">
-        <v>149077.5206945555</v>
+        <v>177.90907214833</v>
       </c>
       <c r="S5">
-        <v>0.9681471769555851</v>
+        <v>0.0001077023880749645</v>
       </c>
       <c r="T5">
-        <v>0.9681471769555851</v>
+        <v>0.0001077023880749645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.84615856485442</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H6">
-        <v>1.84615856485442</v>
+        <v>9128.088134</v>
       </c>
       <c r="I6">
-        <v>0.0006090445637770164</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J6">
-        <v>0.0006090445637770164</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.35839113954773</v>
+        <v>1.379781</v>
       </c>
       <c r="N6">
-        <v>1.35839113954773</v>
+        <v>4.139343</v>
       </c>
       <c r="O6">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="P6">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="Q6">
-        <v>2.507805436698397</v>
+        <v>4198.254191206219</v>
       </c>
       <c r="R6">
-        <v>2.507805436698397</v>
+        <v>37784.28772085597</v>
       </c>
       <c r="S6">
-        <v>1.628632366960267E-05</v>
+        <v>0.02287380834550626</v>
       </c>
       <c r="T6">
-        <v>1.628632366960267E-05</v>
+        <v>0.02287380834550625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.84615856485442</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H7">
-        <v>1.84615856485442</v>
+        <v>9128.088134</v>
       </c>
       <c r="I7">
-        <v>0.0006090445637770164</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J7">
-        <v>0.0006090445637770164</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>49.4401043225405</v>
+        <v>1.27306</v>
       </c>
       <c r="N7">
-        <v>49.4401043225405</v>
+        <v>3.81918</v>
       </c>
       <c r="O7">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="P7">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="Q7">
-        <v>91.27427204235418</v>
+        <v>3873.534626623346</v>
       </c>
       <c r="R7">
-        <v>91.27427204235418</v>
+        <v>34861.81163961012</v>
       </c>
       <c r="S7">
-        <v>0.0005927582401074137</v>
+        <v>0.02110460315972621</v>
       </c>
       <c r="T7">
-        <v>0.0005927582401074137</v>
+        <v>0.02110460315972621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.55923505455737</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H8">
-        <v>7.55923505455737</v>
+        <v>9128.088134</v>
       </c>
       <c r="I8">
-        <v>0.002493778759818428</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J8">
-        <v>0.002493778759818428</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.35839113954773</v>
+        <v>55.34225733333333</v>
       </c>
       <c r="N8">
-        <v>1.35839113954773</v>
+        <v>166.026772</v>
       </c>
       <c r="O8">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="P8">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="Q8">
-        <v>10.26839791986933</v>
+        <v>168389.6674910581</v>
       </c>
       <c r="R8">
-        <v>10.26839791986933</v>
+        <v>1515507.007419523</v>
       </c>
       <c r="S8">
-        <v>6.668557681708994E-05</v>
+        <v>0.9174558771648215</v>
       </c>
       <c r="T8">
-        <v>6.668557681708994E-05</v>
+        <v>0.9174558771648214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3042.696044666667</v>
+      </c>
+      <c r="H9">
+        <v>9128.088134</v>
+      </c>
+      <c r="I9">
+        <v>0.9758504625824999</v>
+      </c>
+      <c r="J9">
+        <v>0.9758504625824997</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8696043333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.608813</v>
+      </c>
+      <c r="O9">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="P9">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="Q9">
+        <v>2645.941665458327</v>
+      </c>
+      <c r="R9">
+        <v>23813.47498912494</v>
+      </c>
+      <c r="S9">
+        <v>0.01441617391244582</v>
+      </c>
+      <c r="T9">
+        <v>0.01441617391244582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.55923505455737</v>
-      </c>
-      <c r="H9">
-        <v>7.55923505455737</v>
-      </c>
-      <c r="I9">
-        <v>0.002493778759818428</v>
-      </c>
-      <c r="J9">
-        <v>0.002493778759818428</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>49.4401043225405</v>
-      </c>
-      <c r="N9">
-        <v>49.4401043225405</v>
-      </c>
-      <c r="O9">
-        <v>0.9732592249594967</v>
-      </c>
-      <c r="P9">
-        <v>0.9732592249594967</v>
-      </c>
-      <c r="Q9">
-        <v>373.7293696959215</v>
-      </c>
-      <c r="R9">
-        <v>373.7293696959215</v>
-      </c>
-      <c r="S9">
-        <v>0.002427093183001338</v>
-      </c>
-      <c r="T9">
-        <v>0.002427093183001338</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.93578</v>
+      </c>
+      <c r="H10">
+        <v>5.80734</v>
+      </c>
+      <c r="I10">
+        <v>0.0006208414447999517</v>
+      </c>
+      <c r="J10">
+        <v>0.0006208414447999516</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.379781</v>
+      </c>
+      <c r="N10">
+        <v>4.139343</v>
+      </c>
+      <c r="O10">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="P10">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="Q10">
+        <v>2.67095246418</v>
+      </c>
+      <c r="R10">
+        <v>24.03857217762</v>
+      </c>
+      <c r="S10">
+        <v>1.455244298775E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.455244298775E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.93578</v>
+      </c>
+      <c r="H11">
+        <v>5.80734</v>
+      </c>
+      <c r="I11">
+        <v>0.0006208414447999517</v>
+      </c>
+      <c r="J11">
+        <v>0.0006208414447999516</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.27306</v>
+      </c>
+      <c r="N11">
+        <v>3.81918</v>
+      </c>
+      <c r="O11">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="P11">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="Q11">
+        <v>2.4643640868</v>
+      </c>
+      <c r="R11">
+        <v>22.1792767812</v>
+      </c>
+      <c r="S11">
+        <v>1.342686489376576E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.342686489376576E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.93578</v>
+      </c>
+      <c r="H12">
+        <v>5.80734</v>
+      </c>
+      <c r="I12">
+        <v>0.0006208414447999517</v>
+      </c>
+      <c r="J12">
+        <v>0.0006208414447999516</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>55.34225733333333</v>
+      </c>
+      <c r="N12">
+        <v>166.026772</v>
+      </c>
+      <c r="O12">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="P12">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="Q12">
+        <v>107.13043490072</v>
+      </c>
+      <c r="R12">
+        <v>964.17391410648</v>
+      </c>
+      <c r="S12">
+        <v>0.0005836904875894962</v>
+      </c>
+      <c r="T12">
+        <v>0.0005836904875894961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.93578</v>
+      </c>
+      <c r="H13">
+        <v>5.80734</v>
+      </c>
+      <c r="I13">
+        <v>0.0006208414447999517</v>
+      </c>
+      <c r="J13">
+        <v>0.0006208414447999516</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.8696043333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.608813</v>
+      </c>
+      <c r="O13">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="P13">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="Q13">
+        <v>1.68336267638</v>
+      </c>
+      <c r="R13">
+        <v>15.15026408742</v>
+      </c>
+      <c r="S13">
+        <v>9.171649328939651E-06</v>
+      </c>
+      <c r="T13">
+        <v>9.171649328939649E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>50.63053333333333</v>
+      </c>
+      <c r="H14">
+        <v>151.8916</v>
+      </c>
+      <c r="I14">
+        <v>0.016238174516556</v>
+      </c>
+      <c r="J14">
+        <v>0.016238174516556</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.379781</v>
+      </c>
+      <c r="N14">
+        <v>4.139343</v>
+      </c>
+      <c r="O14">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="P14">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="Q14">
+        <v>69.8590479132</v>
+      </c>
+      <c r="R14">
+        <v>628.7314312187999</v>
+      </c>
+      <c r="S14">
+        <v>0.0003806207057479204</v>
+      </c>
+      <c r="T14">
+        <v>0.0003806207057479204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>50.63053333333333</v>
+      </c>
+      <c r="H15">
+        <v>151.8916</v>
+      </c>
+      <c r="I15">
+        <v>0.016238174516556</v>
+      </c>
+      <c r="J15">
+        <v>0.016238174516556</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.27306</v>
+      </c>
+      <c r="N15">
+        <v>3.81918</v>
+      </c>
+      <c r="O15">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="P15">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="Q15">
+        <v>64.45570676533332</v>
+      </c>
+      <c r="R15">
+        <v>580.1013608879999</v>
+      </c>
+      <c r="S15">
+        <v>0.0003511810900856349</v>
+      </c>
+      <c r="T15">
+        <v>0.0003511810900856349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>50.63053333333333</v>
+      </c>
+      <c r="H16">
+        <v>151.8916</v>
+      </c>
+      <c r="I16">
+        <v>0.016238174516556</v>
+      </c>
+      <c r="J16">
+        <v>0.016238174516556</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>55.34225733333333</v>
+      </c>
+      <c r="N16">
+        <v>166.026772</v>
+      </c>
+      <c r="O16">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="P16">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="Q16">
+        <v>2802.008004657244</v>
+      </c>
+      <c r="R16">
+        <v>25218.07204191519</v>
+      </c>
+      <c r="S16">
+        <v>0.01526648724971307</v>
+      </c>
+      <c r="T16">
+        <v>0.01526648724971307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>50.63053333333333</v>
+      </c>
+      <c r="H17">
+        <v>151.8916</v>
+      </c>
+      <c r="I17">
+        <v>0.016238174516556</v>
+      </c>
+      <c r="J17">
+        <v>0.016238174516556</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.8696043333333333</v>
+      </c>
+      <c r="N17">
+        <v>2.608813</v>
+      </c>
+      <c r="O17">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="P17">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="Q17">
+        <v>44.02853118564444</v>
+      </c>
+      <c r="R17">
+        <v>396.2567806708</v>
+      </c>
+      <c r="S17">
+        <v>0.0002398854710093726</v>
+      </c>
+      <c r="T17">
+        <v>0.0002398854710093726</v>
       </c>
     </row>
   </sheetData>
